--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="165">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,76 +43,91 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>falling</t>
@@ -121,36 +136,21 @@
     <t>shortage</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -160,343 +160,352 @@
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
     <t>contest</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>helpful</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>well</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>community</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>data</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>make</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>want</t>
+    <t>business</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>via</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>toilet</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
   </si>
   <si>
     <t>prices</t>
@@ -857,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,7 +877,7 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -976,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9705882352941176</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -994,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1018,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1026,13 +1035,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1044,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1076,13 +1085,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1094,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1126,13 +1135,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1144,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1176,13 +1185,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1194,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1226,13 +1235,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1244,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.9130434782608695</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1276,13 +1285,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1294,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8983050847457628</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1326,13 +1335,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1344,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
@@ -1376,13 +1385,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1394,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1418,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1426,13 +1435,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1444,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K13">
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1468,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1476,13 +1485,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6551724137931034</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1494,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1518,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1526,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K15">
-        <v>0.8571428571428571</v>
+        <v>0.84375</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1568,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1576,13 +1585,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.631578947368421</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1594,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.8414634146341463</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L16">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1618,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1626,13 +1635,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6153846153846154</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1644,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K17">
-        <v>0.8275862068965517</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1668,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1676,13 +1685,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5909090909090909</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1694,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1726,13 +1735,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5555555555555556</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1768,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1800,13 +1809,13 @@
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1818,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1826,13 +1835,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1844,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.8028169014084507</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1868,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1876,13 +1885,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5066666666666667</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1894,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0.7872340425531915</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1918,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1926,13 +1935,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4864864864864865</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1944,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1976,13 +1985,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1994,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2018,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2026,13 +2035,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4496644295302014</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2044,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2068,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2076,13 +2085,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4476744186046512</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C26">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2094,19 +2103,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.7647058823529411</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2126,13 +2135,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.44</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>75</v>
@@ -2153,10 +2162,10 @@
         <v>0.75</v>
       </c>
       <c r="L27">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2168,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2176,13 +2185,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.425</v>
+        <v>0.4147286821705427</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2194,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>76</v>
@@ -2226,13 +2235,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4067796610169492</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2244,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2268,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2276,13 +2285,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4054054054054054</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2294,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K30">
-        <v>0.7368421052631579</v>
+        <v>0.71875</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2326,13 +2335,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3896103896103896</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2344,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K31">
-        <v>0.7358490566037735</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2368,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2376,13 +2385,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2394,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K32">
-        <v>0.7301587301587301</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2418,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2426,13 +2435,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3444444444444444</v>
+        <v>0.325</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2444,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K33">
-        <v>0.7254901960784313</v>
+        <v>0.6875</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2468,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2476,13 +2485,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2494,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K34">
-        <v>0.7058823529411765</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2518,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2526,13 +2535,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2544,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K35">
-        <v>0.6808510638297872</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2568,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2576,13 +2585,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.325</v>
+        <v>0.275</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2594,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K36">
-        <v>0.68</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2618,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2626,37 +2635,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3090909090909091</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K37">
-        <v>0.6710182767624021</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L37">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2668,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2676,37 +2685,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3050847457627119</v>
+        <v>0.2430278884462151</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K38">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2726,13 +2735,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2341269841269841</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2744,19 +2753,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K39">
-        <v>0.6666666666666666</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2768,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2776,13 +2785,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1313672922252011</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2794,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K40">
-        <v>0.6521739130434783</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2818,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2826,37 +2835,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.07878787878787878</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K41">
-        <v>0.6279069767441861</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2868,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2876,19 +2885,19 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00876010781671159</v>
+        <v>0.01175680214981525</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D42">
         <v>165</v>
       </c>
       <c r="E42">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="F42">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2900,13 +2909,13 @@
         <v>90</v>
       </c>
       <c r="K42">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2918,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2926,25 +2935,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.008125952260030472</v>
+        <v>0.01089394424863826</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="E43">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="F43">
-        <v>0.07999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1953</v>
+        <v>3087</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>91</v>
@@ -2976,25 +2985,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007374158384097467</v>
+        <v>0.007591093117408907</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="E44">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
       <c r="F44">
-        <v>0.22</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>3096</v>
+        <v>1961</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>92</v>
@@ -3003,10 +3012,10 @@
         <v>0.6</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3018,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3026,13 +3035,13 @@
         <v>93</v>
       </c>
       <c r="K45">
-        <v>0.5833333333333334</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3044,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3052,13 +3061,13 @@
         <v>94</v>
       </c>
       <c r="K46">
-        <v>0.575</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3070,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3078,13 +3087,13 @@
         <v>95</v>
       </c>
       <c r="K47">
-        <v>0.5714285714285714</v>
+        <v>0.575</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3096,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3104,13 +3113,13 @@
         <v>96</v>
       </c>
       <c r="K48">
-        <v>0.5714285714285714</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3122,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -3130,13 +3139,13 @@
         <v>97</v>
       </c>
       <c r="K49">
-        <v>0.5647058823529412</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L49">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3148,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -3156,13 +3165,13 @@
         <v>98</v>
       </c>
       <c r="K50">
-        <v>0.5617977528089888</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="M50">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3174,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -3182,13 +3191,13 @@
         <v>99</v>
       </c>
       <c r="K51">
-        <v>0.5457627118644067</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L51">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3200,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -3208,13 +3217,13 @@
         <v>100</v>
       </c>
       <c r="K52">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3226,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3234,13 +3243,13 @@
         <v>101</v>
       </c>
       <c r="K53">
-        <v>0.5161290322580645</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3252,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3260,13 +3269,13 @@
         <v>102</v>
       </c>
       <c r="K54">
-        <v>0.5146443514644351</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L54">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3278,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3286,13 +3295,13 @@
         <v>103</v>
       </c>
       <c r="K55">
-        <v>0.5076923076923077</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3304,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3312,13 +3321,13 @@
         <v>104</v>
       </c>
       <c r="K56">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3330,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3338,7 +3347,7 @@
         <v>105</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L57">
         <v>13</v>
@@ -3356,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3364,13 +3373,13 @@
         <v>106</v>
       </c>
       <c r="K58">
-        <v>0.4931506849315068</v>
+        <v>0.475</v>
       </c>
       <c r="L58">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3382,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3390,13 +3399,13 @@
         <v>107</v>
       </c>
       <c r="K59">
-        <v>0.46875</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3408,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3416,13 +3425,13 @@
         <v>108</v>
       </c>
       <c r="K60">
-        <v>0.4680851063829787</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3434,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3442,13 +3451,13 @@
         <v>109</v>
       </c>
       <c r="K61">
-        <v>0.45</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3460,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3468,25 +3477,25 @@
         <v>110</v>
       </c>
       <c r="K62">
-        <v>0.4142857142857143</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>29</v>
-      </c>
-      <c r="M62">
-        <v>29</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>41</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3494,25 +3503,25 @@
         <v>111</v>
       </c>
       <c r="K63">
-        <v>0.4102564102564102</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3520,13 +3529,13 @@
         <v>112</v>
       </c>
       <c r="K64">
-        <v>0.3934426229508197</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3538,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3546,7 +3555,7 @@
         <v>113</v>
       </c>
       <c r="K65">
-        <v>0.3389830508474576</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L65">
         <v>20</v>
@@ -3564,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3575,10 +3584,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3590,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3598,25 +3607,25 @@
         <v>115</v>
       </c>
       <c r="K67">
-        <v>0.2826086956521739</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3624,13 +3633,13 @@
         <v>116</v>
       </c>
       <c r="K68">
-        <v>0.25</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3642,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3650,13 +3659,13 @@
         <v>117</v>
       </c>
       <c r="K69">
-        <v>0.2456140350877193</v>
+        <v>0.25</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3668,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -3676,25 +3685,25 @@
         <v>118</v>
       </c>
       <c r="K70">
-        <v>0.2149532710280374</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L70">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N70">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -3702,25 +3711,25 @@
         <v>119</v>
       </c>
       <c r="K71">
-        <v>0.2134292565947242</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L71">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M71">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>328</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -3728,25 +3737,25 @@
         <v>120</v>
       </c>
       <c r="K72">
-        <v>0.208955223880597</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -3754,13 +3763,13 @@
         <v>121</v>
       </c>
       <c r="K73">
-        <v>0.1984732824427481</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3772,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -3780,25 +3789,25 @@
         <v>122</v>
       </c>
       <c r="K74">
-        <v>0.1968503937007874</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M74">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -3806,13 +3815,13 @@
         <v>123</v>
       </c>
       <c r="K75">
-        <v>0.1940298507462687</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3824,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -3832,25 +3841,25 @@
         <v>124</v>
       </c>
       <c r="K76">
-        <v>0.1842105263157895</v>
+        <v>0.1822541966426859</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>62</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -3858,13 +3867,13 @@
         <v>125</v>
       </c>
       <c r="K77">
-        <v>0.173469387755102</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="L77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3876,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -3884,13 +3893,13 @@
         <v>126</v>
       </c>
       <c r="K78">
-        <v>0.1717791411042945</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3902,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -3910,25 +3919,25 @@
         <v>127</v>
       </c>
       <c r="K79">
-        <v>0.1684210526315789</v>
+        <v>0.17</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3936,13 +3945,13 @@
         <v>128</v>
       </c>
       <c r="K80">
-        <v>0.1649484536082474</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3954,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3962,13 +3971,13 @@
         <v>129</v>
       </c>
       <c r="K81">
-        <v>0.1634615384615385</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="L81">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3980,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>348</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -3988,25 +3997,25 @@
         <v>130</v>
       </c>
       <c r="K82">
-        <v>0.1590909090909091</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -4014,7 +4023,7 @@
         <v>131</v>
       </c>
       <c r="K83">
-        <v>0.1584158415841584</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L83">
         <v>16</v>
@@ -4032,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -4040,25 +4049,25 @@
         <v>132</v>
       </c>
       <c r="K84">
-        <v>0.1495327102803738</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L84">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N84">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>182</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -4066,25 +4075,25 @@
         <v>133</v>
       </c>
       <c r="K85">
-        <v>0.1461988304093567</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L85">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M85">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N85">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>146</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -4092,25 +4101,25 @@
         <v>134</v>
       </c>
       <c r="K86">
-        <v>0.1428571428571428</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -4118,25 +4127,25 @@
         <v>135</v>
       </c>
       <c r="K87">
-        <v>0.1428571428571428</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -4144,25 +4153,25 @@
         <v>136</v>
       </c>
       <c r="K88">
-        <v>0.1401869158878505</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L88">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M88">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N88">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>184</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -4170,13 +4179,13 @@
         <v>137</v>
       </c>
       <c r="K89">
-        <v>0.1346153846153846</v>
+        <v>0.1274038461538461</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M89">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -4188,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>90</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -4196,13 +4205,13 @@
         <v>138</v>
       </c>
       <c r="K90">
-        <v>0.1320754716981132</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L90">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -4214,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -4222,13 +4231,13 @@
         <v>139</v>
       </c>
       <c r="K91">
-        <v>0.1313868613138686</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -4240,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>119</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -4248,25 +4257,25 @@
         <v>140</v>
       </c>
       <c r="K92">
-        <v>0.1260869565217391</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="L92">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -4274,25 +4283,25 @@
         <v>141</v>
       </c>
       <c r="K93">
-        <v>0.1151515151515152</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -4300,13 +4309,13 @@
         <v>142</v>
       </c>
       <c r="K94">
-        <v>0.1120689655172414</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="L94">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M94">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4318,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>103</v>
+        <v>790</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -4326,25 +4335,25 @@
         <v>143</v>
       </c>
       <c r="K95">
-        <v>0.1097424412094065</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L95">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M95">
+        <v>14</v>
+      </c>
+      <c r="N95">
+        <v>0.93</v>
+      </c>
+      <c r="O95">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
         <v>99</v>
-      </c>
-      <c r="N95">
-        <v>0.99</v>
-      </c>
-      <c r="O95">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P95" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>795</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -4352,7 +4361,7 @@
         <v>144</v>
       </c>
       <c r="K96">
-        <v>0.1069182389937107</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="L96">
         <v>17</v>
@@ -4370,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -4378,25 +4387,25 @@
         <v>145</v>
       </c>
       <c r="K97">
-        <v>0.1033333333333333</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L97">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="N97">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>807</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -4404,13 +4413,13 @@
         <v>146</v>
       </c>
       <c r="K98">
-        <v>0.09480122324159021</v>
+        <v>0.09701492537313433</v>
       </c>
       <c r="L98">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M98">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -4422,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>296</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -4430,25 +4439,25 @@
         <v>147</v>
       </c>
       <c r="K99">
-        <v>0.0918918918918919</v>
+        <v>0.09222222222222222</v>
       </c>
       <c r="L99">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M99">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>168</v>
+        <v>817</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -4456,207 +4465,207 @@
         <v>148</v>
       </c>
       <c r="K100">
-        <v>0.08794788273615635</v>
+        <v>0.09120521172638436</v>
       </c>
       <c r="L100">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M100">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N100">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O100">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="K101">
-        <v>0.08180535966149506</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L101">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="M101">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="N101">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>1953</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K102">
-        <v>0.07882534775888717</v>
+        <v>0.08775981524249422</v>
       </c>
       <c r="L102">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M102">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N102">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O102">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>596</v>
+        <v>790</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K103">
-        <v>0.07613168724279835</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L103">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>449</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K104">
-        <v>0.07398843930635839</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="L104">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N104">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O104">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>801</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K105">
-        <v>0.07196969696969698</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L105">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M105">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N105">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O105">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>245</v>
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K106">
-        <v>0.06779661016949153</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="L106">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N106">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>0.06666666666666667</v>
+        <v>0.07847744360902256</v>
       </c>
       <c r="L107">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="N107">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="O107">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>210</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -4664,25 +4673,25 @@
         <v>155</v>
       </c>
       <c r="K108">
-        <v>0.05376344086021505</v>
+        <v>0.07613168724279835</v>
       </c>
       <c r="L108">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N108">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>264</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -4690,25 +4699,25 @@
         <v>156</v>
       </c>
       <c r="K109">
-        <v>0.04946996466431095</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="L109">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M109">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N109">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>538</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -4716,181 +4725,259 @@
         <v>157</v>
       </c>
       <c r="K110">
-        <v>0.04913294797687862</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="L110">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M110">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N110">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O110">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>329</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="K111">
-        <v>0.0451152223304122</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="L111">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="M111">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="N111">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="O111">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>2942</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K112">
-        <v>0.03651685393258427</v>
+        <v>0.0463768115942029</v>
       </c>
       <c r="L112">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M112">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N112">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="O112">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K113">
-        <v>0.03423236514522822</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L113">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M113">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N113">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O113">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>931</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K114">
-        <v>0.02767527675276753</v>
+        <v>0.04251386321626617</v>
       </c>
       <c r="L114">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N114">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="O114">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>0.02580239144115796</v>
+        <v>0.04231770833333334</v>
       </c>
       <c r="L115">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M115">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="N115">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="O115">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>3096</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K116">
-        <v>0.02341717259323504</v>
+        <v>0.0395010395010395</v>
       </c>
       <c r="L116">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M116">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N116">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="O116">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>1126</v>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K117">
+        <v>0.03197158081705151</v>
+      </c>
+      <c r="L117">
+        <v>18</v>
+      </c>
+      <c r="M117">
+        <v>22</v>
+      </c>
+      <c r="N117">
+        <v>0.82</v>
+      </c>
+      <c r="O117">
+        <v>0.18</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K118">
+        <v>0.02862098872506505</v>
+      </c>
+      <c r="L118">
+        <v>33</v>
+      </c>
+      <c r="M118">
+        <v>41</v>
+      </c>
+      <c r="N118">
+        <v>0.8</v>
+      </c>
+      <c r="O118">
+        <v>0.2</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K119">
+        <v>0.02526049889485317</v>
+      </c>
+      <c r="L119">
+        <v>80</v>
+      </c>
+      <c r="M119">
+        <v>114</v>
+      </c>
+      <c r="N119">
+        <v>0.7</v>
+      </c>
+      <c r="O119">
+        <v>0.3</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
